--- a/results/scored/NSCLC_human.xlsx
+++ b/results/scored/NSCLC_human.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF200B-85DF-5D43-BC96-B57B19F1D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D985C34D-16ED-BC4A-8B42-2BB45AF6A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
   </bookViews>
@@ -3063,41 +3063,41 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4488,6 +4488,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F35:F36"/>
@@ -4496,11 +4501,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F41:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4511,8 +4511,8 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5388,6 +5388,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F35:F36"/>
@@ -5396,11 +5401,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F41:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
@@ -5452,7 +5452,7 @@
       <c r="B3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="99"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -5461,7 +5461,7 @@
       <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
@@ -5470,7 +5470,7 @@
       <c r="B5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="97"/>
     </row>
     <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
@@ -5479,7 +5479,7 @@
       <c r="B6" s="63">
         <v>1</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="98"/>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
@@ -5488,7 +5488,7 @@
       <c r="B7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="99" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       <c r="B8" s="63">
         <v>0.5</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="100"/>
     </row>
     <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
@@ -5508,7 +5508,7 @@
       <c r="B9" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="99" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       <c r="B10" s="63">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
@@ -5528,7 +5528,7 @@
       <c r="B11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="97"/>
     </row>
     <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -5537,7 +5537,7 @@
       <c r="B12" s="63">
         <v>1</v>
       </c>
-      <c r="C12" s="102"/>
+      <c r="C12" s="98"/>
     </row>
     <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
@@ -5546,7 +5546,7 @@
       <c r="B13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="97"/>
     </row>
     <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -5555,7 +5555,7 @@
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="102"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
@@ -5564,7 +5564,7 @@
       <c r="B15" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="99" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       <c r="B16" s="63">
         <v>0.5</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="100"/>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
@@ -5584,7 +5584,7 @@
       <c r="B17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="97"/>
     </row>
     <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
@@ -5593,7 +5593,7 @@
       <c r="B18" s="63">
         <v>0</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="98"/>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
@@ -5602,7 +5602,7 @@
       <c r="B19" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="97"/>
     </row>
     <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
@@ -5611,7 +5611,7 @@
       <c r="B20" s="63">
         <v>1</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="98"/>
     </row>
     <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
@@ -5620,7 +5620,7 @@
       <c r="B21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="99"/>
     </row>
     <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
@@ -5629,7 +5629,7 @@
       <c r="B22" s="63">
         <v>1</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="101"/>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
@@ -5638,7 +5638,7 @@
       <c r="B23" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="93" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       <c r="B24" s="63">
         <v>1</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="102"/>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
@@ -5658,7 +5658,7 @@
       <c r="B25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="97"/>
+      <c r="C25" s="93"/>
     </row>
     <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -5667,7 +5667,7 @@
       <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="94"/>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="s">
@@ -5676,7 +5676,7 @@
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="99" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       <c r="B28" s="9">
         <v>0.5</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="100"/>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
@@ -5696,7 +5696,7 @@
       <c r="B29" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="95"/>
+      <c r="C29" s="99"/>
     </row>
     <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -5705,27 +5705,27 @@
       <c r="B30" s="63">
         <v>0</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="100"/>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="93"/>
+      <c r="C31" s="103"/>
     </row>
     <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="93"/>
+      <c r="C32" s="103"/>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="94"/>
+      <c r="C33" s="104"/>
     </row>
     <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="94"/>
+      <c r="C34" s="104"/>
     </row>
     <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
@@ -5735,132 +5735,132 @@
     <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="93"/>
+      <c r="C36" s="103"/>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="93"/>
+      <c r="C37" s="103"/>
     </row>
     <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="93"/>
+      <c r="C38" s="103"/>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="93"/>
+      <c r="C39" s="103"/>
     </row>
     <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="93"/>
+      <c r="C40" s="103"/>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="93"/>
+      <c r="C41" s="103"/>
     </row>
     <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="103"/>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="93"/>
+      <c r="C43" s="103"/>
     </row>
     <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="103"/>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="93"/>
+      <c r="C45" s="103"/>
     </row>
     <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="94"/>
+      <c r="C46" s="104"/>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="94"/>
+      <c r="C47" s="104"/>
     </row>
     <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="94"/>
+      <c r="C48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="94"/>
+      <c r="C49" s="104"/>
     </row>
     <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="93"/>
+      <c r="C50" s="103"/>
     </row>
     <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="93"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="93"/>
+      <c r="C52" s="103"/>
     </row>
     <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="93"/>
+      <c r="C53" s="103"/>
     </row>
     <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="93"/>
+      <c r="C54" s="103"/>
     </row>
     <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="93"/>
+      <c r="C55" s="103"/>
     </row>
     <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="93"/>
+      <c r="C56" s="103"/>
     </row>
     <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="93"/>
+      <c r="C57" s="103"/>
     </row>
     <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="93"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="93"/>
+      <c r="C59" s="103"/>
     </row>
     <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="94"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="94"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
@@ -5887,6 +5887,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -5899,23 +5916,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5966,7 +5966,7 @@
       <c r="B3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="99"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -5975,7 +5975,7 @@
       <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
@@ -5984,7 +5984,7 @@
       <c r="B5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="97"/>
     </row>
     <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
@@ -5993,7 +5993,7 @@
       <c r="B6" s="63">
         <v>1</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="98"/>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
@@ -6002,7 +6002,7 @@
       <c r="B7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="99" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       <c r="B8" s="63">
         <v>0.25</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="100"/>
     </row>
     <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
@@ -6022,7 +6022,7 @@
       <c r="B9" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="99" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       <c r="B10" s="63">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="100"/>
     </row>
     <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
@@ -6042,7 +6042,7 @@
       <c r="B11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="97" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       <c r="B12" s="63">
         <v>0.5</v>
       </c>
-      <c r="C12" s="102"/>
+      <c r="C12" s="98"/>
     </row>
     <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
@@ -6062,7 +6062,7 @@
       <c r="B13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="97"/>
     </row>
     <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -6071,7 +6071,7 @@
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="102"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
@@ -6080,7 +6080,7 @@
       <c r="B15" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="99" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       <c r="B16" s="63">
         <v>0</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="100"/>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
@@ -6100,7 +6100,7 @@
       <c r="B17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="97"/>
     </row>
     <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
@@ -6109,7 +6109,7 @@
       <c r="B18" s="63">
         <v>0</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="98"/>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
@@ -6118,7 +6118,7 @@
       <c r="B19" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="101"/>
+      <c r="C19" s="97"/>
     </row>
     <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
@@ -6127,7 +6127,7 @@
       <c r="B20" s="63">
         <v>1</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="98"/>
     </row>
     <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
@@ -6136,7 +6136,7 @@
       <c r="B21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="99"/>
     </row>
     <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
@@ -6145,7 +6145,7 @@
       <c r="B22" s="63">
         <v>1</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="101"/>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
@@ -6154,7 +6154,7 @@
       <c r="B23" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="93" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       <c r="B24" s="63">
         <v>0</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="102"/>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
@@ -6174,7 +6174,7 @@
       <c r="B25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="97"/>
+      <c r="C25" s="93"/>
     </row>
     <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -6183,7 +6183,7 @@
       <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="98"/>
+      <c r="C26" s="94"/>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="s">
@@ -6192,7 +6192,7 @@
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="99" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="B28" s="9">
         <v>0</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="100"/>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
@@ -6212,7 +6212,7 @@
       <c r="B29" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="95"/>
+      <c r="C29" s="99"/>
     </row>
     <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -6221,27 +6221,27 @@
       <c r="B30" s="63">
         <v>0</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="100"/>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="93"/>
+      <c r="C31" s="103"/>
     </row>
     <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="93"/>
+      <c r="C32" s="103"/>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="94"/>
+      <c r="C33" s="104"/>
     </row>
     <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="94"/>
+      <c r="C34" s="104"/>
     </row>
     <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
@@ -6251,132 +6251,132 @@
     <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="93"/>
+      <c r="C36" s="103"/>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="93"/>
+      <c r="C37" s="103"/>
     </row>
     <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="93"/>
+      <c r="C38" s="103"/>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="93"/>
+      <c r="C39" s="103"/>
     </row>
     <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="93"/>
+      <c r="C40" s="103"/>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="93"/>
+      <c r="C41" s="103"/>
     </row>
     <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="103"/>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="93"/>
+      <c r="C43" s="103"/>
     </row>
     <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="103"/>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="93"/>
+      <c r="C45" s="103"/>
     </row>
     <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="94"/>
+      <c r="C46" s="104"/>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="94"/>
+      <c r="C47" s="104"/>
     </row>
     <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="94"/>
+      <c r="C48" s="104"/>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="94"/>
+      <c r="C49" s="104"/>
     </row>
     <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="93"/>
+      <c r="C50" s="103"/>
     </row>
     <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="93"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="93"/>
+      <c r="C52" s="103"/>
     </row>
     <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="93"/>
+      <c r="C53" s="103"/>
     </row>
     <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="93"/>
+      <c r="C54" s="103"/>
     </row>
     <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="93"/>
+      <c r="C55" s="103"/>
     </row>
     <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="93"/>
+      <c r="C56" s="103"/>
     </row>
     <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="93"/>
+      <c r="C57" s="103"/>
     </row>
     <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="93"/>
+      <c r="C58" s="103"/>
     </row>
     <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="93"/>
+      <c r="C59" s="103"/>
     </row>
     <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="94"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="94"/>
+      <c r="C61" s="104"/>
     </row>
     <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
@@ -6403,16 +6403,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
@@ -6425,13 +6422,16 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/scored/NSCLC_human.xlsx
+++ b/results/scored/NSCLC_human.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/pico-parser-llm/results/scored/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D985C34D-16ED-BC4A-8B42-2BB45AF6A862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96B200-817C-4B4F-B3A9-BA8BBEB1D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="3" xr2:uid="{94ED0F72-83BA-0D42-BD77-66A26D61B195}"/>
   </bookViews>
   <sheets>
     <sheet name="NSCLC_PC_base" sheetId="26" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="168">
   <si>
     <t>PICO_ID</t>
   </si>
@@ -1933,6 +1933,12 @@
   </si>
   <si>
     <t>Overall instead of objective</t>
+  </si>
+  <si>
+    <t>no mention of KRAS</t>
+  </si>
+  <si>
+    <t>All instruments are mentioned, but there is no explicit information about changes. QLQ not mentioned</t>
   </si>
 </sst>
 </file>
@@ -3063,6 +3069,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3081,23 +3099,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3504,9 +3510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A9400-6C1F-E444-85C3-E7311C65B152}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4488,11 +4494,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F35:F36"/>
@@ -4501,6 +4502,11 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F41:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4510,9 +4516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDAB125-E83E-A94F-9305-E903F1FC3BB2}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B58"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4608,10 +4614,10 @@
         <v>41</v>
       </c>
       <c r="B6" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="86"/>
@@ -4657,19 +4663,17 @@
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="87"/>
-      <c r="F9" s="90" t="s">
-        <v>133</v>
-      </c>
+      <c r="F9" s="90"/>
     </row>
     <row r="10" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="87"/>
@@ -4687,19 +4691,17 @@
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="88"/>
-      <c r="F11" s="91" t="s">
-        <v>134</v>
-      </c>
+      <c r="F11" s="91"/>
     </row>
     <row r="12" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="81"/>
       <c r="E12" s="87"/>
@@ -4717,19 +4719,17 @@
       </c>
       <c r="D13" s="75"/>
       <c r="E13" s="87"/>
-      <c r="F13" s="90" t="s">
-        <v>139</v>
-      </c>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="76"/>
       <c r="E14" s="87"/>
@@ -4745,16 +4745,22 @@
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="90"/>
+      <c r="D15" s="75">
+        <v>39</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="33">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
@@ -4782,7 +4788,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="18">
         <v>1</v>
@@ -4810,7 +4816,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C20" s="18">
         <v>1</v>
@@ -4840,7 +4846,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="33">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C22" s="18">
         <v>1</v>
@@ -4868,7 +4874,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C24" s="31">
         <v>1</v>
@@ -4896,7 +4902,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C26" s="31">
         <v>1</v>
@@ -5038,10 +5044,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="33">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C36" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D36" s="82"/>
       <c r="E36" s="86"/>
@@ -5096,10 +5102,10 @@
         <v>56</v>
       </c>
       <c r="B40" s="33">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="C40" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="82"/>
       <c r="E40" s="86"/>
@@ -5126,7 +5132,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C42" s="31">
         <v>1</v>
@@ -5212,10 +5218,10 @@
         <v>60</v>
       </c>
       <c r="B48" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="82"/>
       <c r="E48" s="86"/>
@@ -5268,10 +5274,10 @@
         <v>64</v>
       </c>
       <c r="B52" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="82"/>
       <c r="E52" s="86"/>
@@ -5298,7 +5304,7 @@
         <v>66</v>
       </c>
       <c r="B54" s="30">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C54" s="31">
         <v>1</v>
@@ -5326,10 +5332,10 @@
         <v>68</v>
       </c>
       <c r="B56" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C56" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="82"/>
       <c r="E56" s="86"/>
@@ -5354,7 +5360,7 @@
         <v>88</v>
       </c>
       <c r="B58" s="33">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="C58" s="18">
         <v>1</v>
@@ -5388,11 +5394,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F35:F36"/>
@@ -5401,6 +5402,11 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F41:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
@@ -5413,7 +5419,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5452,7 +5458,7 @@
       <c r="B3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="99"/>
     </row>
     <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -5461,7 +5467,7 @@
       <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
@@ -5470,7 +5476,7 @@
       <c r="B5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="97"/>
+      <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
@@ -5479,7 +5485,7 @@
       <c r="B6" s="63">
         <v>1</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="102"/>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
@@ -5488,7 +5494,7 @@
       <c r="B7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="95" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5499,7 +5505,7 @@
       <c r="B8" s="63">
         <v>0.5</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="96"/>
     </row>
     <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
@@ -5508,7 +5514,7 @@
       <c r="B9" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="95" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5519,7 +5525,7 @@
       <c r="B10" s="63">
         <v>0.5</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="96"/>
     </row>
     <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
@@ -5528,7 +5534,7 @@
       <c r="B11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="101"/>
     </row>
     <row r="12" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -5537,7 +5543,7 @@
       <c r="B12" s="63">
         <v>1</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="102"/>
     </row>
     <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
@@ -5546,7 +5552,7 @@
       <c r="B13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -5555,7 +5561,7 @@
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="102"/>
     </row>
     <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
@@ -5564,7 +5570,7 @@
       <c r="B15" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="95" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5575,7 +5581,7 @@
       <c r="B16" s="63">
         <v>0.5</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="96"/>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
@@ -5584,7 +5590,7 @@
       <c r="B17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
@@ -5593,7 +5599,7 @@
       <c r="B18" s="63">
         <v>0</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="102"/>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
@@ -5602,7 +5608,7 @@
       <c r="B19" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="101"/>
     </row>
     <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
@@ -5611,7 +5617,7 @@
       <c r="B20" s="63">
         <v>1</v>
       </c>
-      <c r="C20" s="98"/>
+      <c r="C20" s="102"/>
     </row>
     <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
@@ -5620,7 +5626,7 @@
       <c r="B21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
@@ -5629,7 +5635,7 @@
       <c r="B22" s="63">
         <v>1</v>
       </c>
-      <c r="C22" s="101"/>
+      <c r="C22" s="103"/>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
@@ -5638,7 +5644,7 @@
       <c r="B23" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="97" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5649,7 +5655,7 @@
       <c r="B24" s="63">
         <v>1</v>
       </c>
-      <c r="C24" s="102"/>
+      <c r="C24" s="104"/>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
@@ -5658,7 +5664,7 @@
       <c r="B25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="97"/>
     </row>
     <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -5667,7 +5673,7 @@
       <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="94"/>
+      <c r="C26" s="98"/>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="s">
@@ -5676,7 +5682,7 @@
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="95" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5687,7 +5693,7 @@
       <c r="B28" s="9">
         <v>0.5</v>
       </c>
-      <c r="C28" s="100"/>
+      <c r="C28" s="96"/>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
@@ -5696,7 +5702,7 @@
       <c r="B29" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="99"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -5705,27 +5711,27 @@
       <c r="B30" s="63">
         <v>0</v>
       </c>
-      <c r="C30" s="100"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="93"/>
     </row>
     <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="103"/>
+      <c r="C32" s="93"/>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="104"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="104"/>
+      <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
@@ -5735,132 +5741,132 @@
     <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="103"/>
+      <c r="C36" s="93"/>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="103"/>
+      <c r="C37" s="93"/>
     </row>
     <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="103"/>
+      <c r="C38" s="93"/>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="103"/>
+      <c r="C39" s="93"/>
     </row>
     <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="103"/>
+      <c r="C40" s="93"/>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="103"/>
+      <c r="C41" s="93"/>
     </row>
     <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="103"/>
+      <c r="C42" s="93"/>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="103"/>
+      <c r="C43" s="93"/>
     </row>
     <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="103"/>
+      <c r="C44" s="93"/>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="103"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="104"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="104"/>
+      <c r="C47" s="94"/>
     </row>
     <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="104"/>
+      <c r="C48" s="94"/>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="104"/>
+      <c r="C49" s="94"/>
     </row>
     <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="103"/>
+      <c r="C50" s="93"/>
     </row>
     <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="103"/>
+      <c r="C51" s="93"/>
     </row>
     <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="103"/>
+      <c r="C52" s="93"/>
     </row>
     <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="103"/>
+      <c r="C53" s="93"/>
     </row>
     <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="103"/>
+      <c r="C54" s="93"/>
     </row>
     <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="103"/>
+      <c r="C55" s="93"/>
     </row>
     <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="103"/>
+      <c r="C56" s="93"/>
     </row>
     <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="103"/>
+      <c r="C57" s="93"/>
     </row>
     <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="103"/>
+      <c r="C58" s="93"/>
     </row>
     <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="103"/>
+      <c r="C59" s="93"/>
     </row>
     <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="104"/>
+      <c r="C60" s="94"/>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="104"/>
+      <c r="C61" s="94"/>
     </row>
     <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
@@ -5887,11 +5893,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
@@ -5904,18 +5917,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5925,9 +5931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49AA3AF-D47F-574A-BF19-5C37150A4C86}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5966,7 +5972,7 @@
       <c r="B3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="99"/>
     </row>
     <row r="4" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -5975,7 +5981,7 @@
       <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="100"/>
     </row>
     <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
@@ -5984,7 +5990,7 @@
       <c r="B5" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="97"/>
+      <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
@@ -5993,7 +5999,7 @@
       <c r="B6" s="63">
         <v>1</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="102"/>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
@@ -6002,8 +6008,8 @@
       <c r="B7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>145</v>
+      <c r="C7" s="95" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6013,7 +6019,7 @@
       <c r="B8" s="63">
         <v>0.25</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="96"/>
     </row>
     <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
@@ -6022,7 +6028,7 @@
       <c r="B9" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="95" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6033,7 +6039,7 @@
       <c r="B10" s="63">
         <v>0.5</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="96"/>
     </row>
     <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
@@ -6042,7 +6048,7 @@
       <c r="B11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6053,7 +6059,7 @@
       <c r="B12" s="63">
         <v>0.5</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="102"/>
     </row>
     <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
@@ -6062,7 +6068,7 @@
       <c r="B13" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -6071,7 +6077,7 @@
       <c r="B14" s="63">
         <v>1</v>
       </c>
-      <c r="C14" s="98"/>
+      <c r="C14" s="102"/>
     </row>
     <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
@@ -6080,7 +6086,7 @@
       <c r="B15" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="95" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6089,9 +6095,9 @@
         <v>37</v>
       </c>
       <c r="B16" s="63">
-        <v>0</v>
-      </c>
-      <c r="C16" s="100"/>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="96"/>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
@@ -6100,7 +6106,7 @@
       <c r="B17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
@@ -6109,7 +6115,7 @@
       <c r="B18" s="63">
         <v>0</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="102"/>
     </row>
     <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
@@ -6118,7 +6124,7 @@
       <c r="B19" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="97"/>
+      <c r="C19" s="101"/>
     </row>
     <row r="20" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
@@ -6127,7 +6133,7 @@
       <c r="B20" s="63">
         <v>1</v>
       </c>
-      <c r="C20" s="98"/>
+      <c r="C20" s="102"/>
     </row>
     <row r="21" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
@@ -6136,7 +6142,7 @@
       <c r="B21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
@@ -6145,7 +6151,7 @@
       <c r="B22" s="63">
         <v>1</v>
       </c>
-      <c r="C22" s="101"/>
+      <c r="C22" s="103"/>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
@@ -6154,7 +6160,7 @@
       <c r="B23" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="97" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6165,7 +6171,7 @@
       <c r="B24" s="63">
         <v>0</v>
       </c>
-      <c r="C24" s="102"/>
+      <c r="C24" s="104"/>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
@@ -6174,7 +6180,7 @@
       <c r="B25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="97"/>
     </row>
     <row r="26" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -6183,7 +6189,7 @@
       <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="94"/>
+      <c r="C26" s="98"/>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57" t="s">
@@ -6192,7 +6198,7 @@
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="95" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6203,7 +6209,7 @@
       <c r="B28" s="9">
         <v>0</v>
       </c>
-      <c r="C28" s="100"/>
+      <c r="C28" s="96"/>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
@@ -6212,7 +6218,7 @@
       <c r="B29" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="99"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -6221,27 +6227,27 @@
       <c r="B30" s="63">
         <v>0</v>
       </c>
-      <c r="C30" s="100"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="93"/>
     </row>
     <row r="32" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="103"/>
+      <c r="C32" s="93"/>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="104"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="104"/>
+      <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
@@ -6251,132 +6257,132 @@
     <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="67"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="103"/>
+      <c r="C36" s="93"/>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="103"/>
+      <c r="C37" s="93"/>
     </row>
     <row r="38" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="103"/>
+      <c r="C38" s="93"/>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="103"/>
+      <c r="C39" s="93"/>
     </row>
     <row r="40" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="103"/>
+      <c r="C40" s="93"/>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="59"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="103"/>
+      <c r="C41" s="93"/>
     </row>
     <row r="42" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="103"/>
+      <c r="C42" s="93"/>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="59"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="103"/>
+      <c r="C43" s="93"/>
     </row>
     <row r="44" spans="1:3" s="32" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="103"/>
+      <c r="C44" s="93"/>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="59"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="103"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="104"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="59"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="104"/>
+      <c r="C47" s="94"/>
     </row>
     <row r="48" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="104"/>
+      <c r="C48" s="94"/>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="59"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="104"/>
+      <c r="C49" s="94"/>
     </row>
     <row r="50" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="103"/>
+      <c r="C50" s="93"/>
     </row>
     <row r="51" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="59"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="103"/>
+      <c r="C51" s="93"/>
     </row>
     <row r="52" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="103"/>
+      <c r="C52" s="93"/>
     </row>
     <row r="53" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="103"/>
+      <c r="C53" s="93"/>
     </row>
     <row r="54" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="103"/>
+      <c r="C54" s="93"/>
     </row>
     <row r="55" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="103"/>
+      <c r="C55" s="93"/>
     </row>
     <row r="56" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="103"/>
+      <c r="C56" s="93"/>
     </row>
     <row r="57" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="103"/>
+      <c r="C57" s="93"/>
     </row>
     <row r="58" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="103"/>
+      <c r="C58" s="93"/>
     </row>
     <row r="59" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="103"/>
+      <c r="C59" s="93"/>
     </row>
     <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="59"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="104"/>
+      <c r="C60" s="94"/>
     </row>
     <row r="61" spans="1:3" s="32" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="104"/>
+      <c r="C61" s="94"/>
     </row>
     <row r="62" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
@@ -6403,13 +6409,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
@@ -6422,16 +6431,13 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
